--- a/TestDocs/E2e_tests_R4D.xlsx
+++ b/TestDocs/E2e_tests_R4D.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EnyFood\Random4Dinner\TestDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66944385-5D6F-48DA-B052-E2BBFA95877E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A82A71-86D4-45BF-BD00-7352FFDD7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39105" yWindow="2280" windowWidth="32055" windowHeight="17010" xr2:uid="{45BE1B39-84B1-47C3-9973-4B355870E5A1}"/>
+    <workbookView xWindow="-44100" yWindow="795" windowWidth="31650" windowHeight="12330" activeTab="1" xr2:uid="{45BE1B39-84B1-47C3-9973-4B355870E5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="E2E" sheetId="1" r:id="rId1"/>
+    <sheet name="13.10E2E" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -51,48 +52,27 @@
     <t>Tap the [Войти через Google] button</t>
   </si>
   <si>
-    <t>Google Account authorisation screen is opened</t>
-  </si>
-  <si>
     <t>Tap the [Войти через AppleID] button</t>
   </si>
   <si>
-    <t>Apple Account authorisation screen is opened</t>
-  </si>
-  <si>
     <t>Tap the [Продолжить без регистрации] button</t>
   </si>
   <si>
-    <t>The "Homepage" screen is opened</t>
-  </si>
-  <si>
     <t>2. Homepage</t>
   </si>
   <si>
     <t>Tap the [Новое блюдо] Tab bar button</t>
   </si>
   <si>
-    <t>The "New Dish" screen is opened</t>
-  </si>
-  <si>
     <t>Tap the [Мои блюда] Tab bar button</t>
   </si>
   <si>
-    <t>The "My Dishes" screen is opened</t>
-  </si>
-  <si>
     <t>Tap the [Выбрать еду] button</t>
   </si>
   <si>
-    <t>The random "{Name} dish" screen is opened</t>
-  </si>
-  <si>
     <t>Tap the [Настройки] Tab bar button</t>
   </si>
   <si>
-    <t>The "Settings" screen is opened</t>
-  </si>
-  <si>
     <t>3. My Dishes</t>
   </si>
   <si>
@@ -111,9 +91,6 @@
     <t>Tap the {Name} dish item</t>
   </si>
   <si>
-    <t>Selected "{Name} dish" screen is opened</t>
-  </si>
-  <si>
     <t>Scroll the "{Name} dish" screen</t>
   </si>
   <si>
@@ -123,9 +100,6 @@
     <t>Tap the [Редактировать] button on the "{Name} dish" screen</t>
   </si>
   <si>
-    <t>The "{Name} dish" screen is opened to edit</t>
-  </si>
-  <si>
     <t>Edit the {Name} dish field and Content info field on the "Edit {Name} dish" screen</t>
   </si>
   <si>
@@ -141,21 +115,12 @@
     <t>Tap the [Выбрать фото] button</t>
   </si>
   <si>
-    <t>User's photo galery is opened</t>
-  </si>
-  <si>
     <t>Tap the [Сохранить] button</t>
   </si>
   <si>
-    <t>Edited "{Name} dish" screen is opened</t>
-  </si>
-  <si>
     <t>Tap Back button on the "Edit {Name} dish" screen</t>
   </si>
   <si>
-    <t>The "{Name} dish" screen is opened and was not edited</t>
-  </si>
-  <si>
     <t>Tap the [Удалить] button</t>
   </si>
   <si>
@@ -177,24 +142,15 @@
     <t>The item of the Segmented control is selected</t>
   </si>
   <si>
-    <t>"{Name} dish" screen is saved. The "{Name} dish" screen is opened</t>
-  </si>
-  <si>
     <t>Tap Back button on the "Новое блюдо" screen</t>
   </si>
   <si>
-    <t>"Homepage" screen is opened</t>
-  </si>
-  <si>
     <t>5. Settings</t>
   </si>
   <si>
     <t>Tap the "Мои группы" link</t>
   </si>
   <si>
-    <t>"Выбор группы" screen is opened</t>
-  </si>
-  <si>
     <t>Scroll the My groups list (in case there are more than 5 groups)</t>
   </si>
   <si>
@@ -204,15 +160,9 @@
     <t>Tap another group</t>
   </si>
   <si>
-    <t>Another group is selected. Selected group checkmark is appeared on the selected group.</t>
-  </si>
-  <si>
     <t>Tap Add button on the group</t>
   </si>
   <si>
-    <t>The "Inviting in the {Name} group" screen is opened</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -346,6 +296,351 @@
   </si>
   <si>
     <t>iPad Air 4, iPadOS 26.0.1</t>
+  </si>
+  <si>
+    <t>Status Description</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>The checklist item was checked and passed without issues</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>The checklist item was checked and failed; an issue was found. Please provide a link to the bug report in the "Bug links" column</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Fill in the Email field</t>
+  </si>
+  <si>
+    <t>The Email field is filled in.</t>
+  </si>
+  <si>
+    <t>Tap the [Отправить приглашение] button</t>
+  </si>
+  <si>
+    <t>The invitation is sent.</t>
+  </si>
+  <si>
+    <t>Tap the [Мои рецепты] button</t>
+  </si>
+  <si>
+    <t>The {Name} receipt is displayed.</t>
+  </si>
+  <si>
+    <t>Entre the {Name} receipt in the Search field</t>
+  </si>
+  <si>
+    <t>Tap the {Name} receipt</t>
+  </si>
+  <si>
+    <t>"{Name} receipt" screen is displayed</t>
+  </si>
+  <si>
+    <t>The "Inviting in the {Name} group" screen is displayed</t>
+  </si>
+  <si>
+    <t>"My receipts" screen is displayed</t>
+  </si>
+  <si>
+    <t>Another group is selected. Selected group checkmark is displayed on the selected group.</t>
+  </si>
+  <si>
+    <t>"Выбор группы" screen is displayed</t>
+  </si>
+  <si>
+    <t>"Homepage" screen is displayed</t>
+  </si>
+  <si>
+    <t>"{Name} dish" screen is saved. The "{Name} dish" screen is displayed</t>
+  </si>
+  <si>
+    <t>User's photo galery is displayed</t>
+  </si>
+  <si>
+    <t>The "{Name} dish" screen is displayed and was not edited</t>
+  </si>
+  <si>
+    <t>Edited "{Name} dish" screen is displayed</t>
+  </si>
+  <si>
+    <t>The "{Name} dish" screen is displayed to edit</t>
+  </si>
+  <si>
+    <t>Selected "{Name} dish" screen is displayed</t>
+  </si>
+  <si>
+    <t>The "Settings" screen is displayed</t>
+  </si>
+  <si>
+    <t>The random "{Name} dish" screen is displayed</t>
+  </si>
+  <si>
+    <t>The "My Dishes" screen is displayed</t>
+  </si>
+  <si>
+    <t>The "New Dish" screen is displayed</t>
+  </si>
+  <si>
+    <t>The "Homepage" screen is displayed</t>
+  </si>
+  <si>
+    <t>Apple Account authorisation screen is displayed</t>
+  </si>
+  <si>
+    <t>Google Account authorisation screen is displayed</t>
+  </si>
+  <si>
+    <t>Tap the Edit button</t>
+  </si>
+  <si>
+    <t>"{Name} receipt" screen is displayed to edit</t>
+  </si>
+  <si>
+    <t>Tap the Stepper to increase the amount (+1)</t>
+  </si>
+  <si>
+    <t>Tap the Stepper to decrease the amount (-1)</t>
+  </si>
+  <si>
+    <t>The counter is increased (+1). The amount of ingredients is increased.</t>
+  </si>
+  <si>
+    <t>The counter is decreased (-1). The amount of ingredients is decreased</t>
+  </si>
+  <si>
+    <t>Mai_unni</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t>5.16</t>
+  </si>
+  <si>
+    <t>Tap [Отмена] button</t>
+  </si>
+  <si>
+    <t>The {Name} receipt is displayed without edited info.</t>
+  </si>
+  <si>
+    <t>The {Name} receipt is displayed with edited info.</t>
+  </si>
+  <si>
+    <t>Tap Back button</t>
+  </si>
+  <si>
+    <t>Tap Add button</t>
+  </si>
+  <si>
+    <t>The "My receipts" screen is displayed</t>
+  </si>
+  <si>
+    <t>The "New receipt" screen is displayed</t>
+  </si>
+  <si>
+    <t>5.17</t>
+  </si>
+  <si>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>Test Result comment</t>
+  </si>
+  <si>
+    <t>Fill in The Name, the Content info and the Link fields.</t>
+  </si>
+  <si>
+    <t>The fields are filled in.</t>
+  </si>
+  <si>
+    <t>Select Category Picker</t>
+  </si>
+  <si>
+    <t>The category is selected</t>
+  </si>
+  <si>
+    <t>The checklist item was intentionally skipped (not relevant at the moment due to the current App build)</t>
+  </si>
+  <si>
+    <t>The counter is increased (+1).</t>
+  </si>
+  <si>
+    <t>The counter is decreased (-1).</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>{Name} receipt is displayed in the Receipt list</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>Tap the [Добавить] button</t>
+  </si>
+  <si>
+    <t>Tap the [Выйти из аккаунта] button</t>
+  </si>
+  <si>
+    <t>"Registration" screen is displayed</t>
+  </si>
+  <si>
+    <t>Authentication is successful and then the App is quitted.</t>
+  </si>
+  <si>
+    <t>User's photo galery is displayed.</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>Select the photo in the gallery</t>
+  </si>
+  <si>
+    <t>Selected photo is added to the {Name} dish form screen</t>
+  </si>
+  <si>
+    <t>Selected photo is added to the "New dish form" screen</t>
+  </si>
+  <si>
+    <t>Fill in the info in the Name dish field and in the Content info field</t>
+  </si>
+  <si>
+    <t>"Ошибка синхронизации с облаком" error</t>
+  </si>
+  <si>
+    <t>Selected photo is added to the "{Name} dish form" screen</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>"Ошибка синхронизации изменений" error, "{Name} dish form" is edited except adding photo.</t>
+  </si>
+  <si>
+    <t>The "{Name} dish" screen was edited</t>
+  </si>
+  <si>
+    <t>Permanent loading is displayed</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>The "{Name} receipt" screen is displayed</t>
+  </si>
+  <si>
+    <t>Edit the {Name} receipt field and Content info field</t>
+  </si>
+  <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>Fields are edited</t>
+  </si>
+  <si>
+    <t>Counter wasn't rewrited according to edited info</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>Tap the Ingredients dropdown</t>
+  </si>
+  <si>
+    <t>The Ingredients dropdown is opened</t>
+  </si>
+  <si>
+    <t>Tap the [Добавить ингридиент] button</t>
+  </si>
+  <si>
+    <t>The corsor is positioned in the Ingredient field</t>
+  </si>
+  <si>
+    <t>Fill in the name to the Ingredients field</t>
+  </si>
+  <si>
+    <t>The name of the Ingredient is displayed</t>
+  </si>
+  <si>
+    <t>Fill in the amount of the Ingredient</t>
+  </si>
+  <si>
+    <t>The amount of the Ingredient is displayed</t>
+  </si>
+  <si>
+    <t>Select the method of measuring the quantity of the Ingredient in the Measuring Picker</t>
+  </si>
+  <si>
+    <t>The method of measuring the quantity of the Ingredient is selected</t>
+  </si>
+  <si>
+    <t>Additional panel isn't useful</t>
+  </si>
+  <si>
+    <t>Tap the proportions stepper to decrease the amount (-1)</t>
+  </si>
+  <si>
+    <t>Tap the proportions stepper to increase the amount (+1)</t>
+  </si>
+  <si>
+    <t>Proportions details are increased</t>
+  </si>
+  <si>
+    <t>Proportions details are decreased</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>5.27</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>The {Name} receipt is displayed in the Receipt list</t>
+  </si>
+  <si>
+    <t>The {Name} receipt isn't displayed in the Receipt list</t>
+  </si>
+  <si>
+    <t>The "Registration" screen is displayed</t>
+  </si>
+  <si>
+    <t>The "{Name} receipt" screen is displayed to edit</t>
+  </si>
+  <si>
+    <t>The "Выбор группы" screen is displayed</t>
+  </si>
+  <si>
+    <t>The "{Name} dish" screen is saved. The "{Name} dish" screen is displayed</t>
+  </si>
+  <si>
+    <t>The counting logic isn't clear</t>
   </si>
 </sst>
 </file>
@@ -410,18 +705,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,8 +721,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -519,30 +814,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -562,7 +833,149 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +989,17 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -583,24 +1007,249 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -611,11 +1260,117 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -624,7 +1379,20 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -632,13 +1400,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -647,17 +1448,72 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,67 +1521,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -736,26 +1547,245 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -763,6 +1793,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -787,6 +1824,157 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1100,815 +2288,1050 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFF1F62-B341-4223-A23B-BA9E1D8E4F2D}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.109375" customWidth="1"/>
     <col min="3" max="3" width="52.88671875" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="29"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="31"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
+    </row>
+    <row r="3" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="E3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="86"/>
+    </row>
+    <row r="4" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="86"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
+      <c r="D7" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="77"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="92"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="77"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>59</v>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="40"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="40"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="40"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="38"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="40"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="40"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="64"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="40"/>
+    </row>
+    <row r="32" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="54"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="88"/>
+      <c r="C35" s="89"/>
+    </row>
+    <row r="36" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="41"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="40"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="40"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="40"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="40"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="66"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="88"/>
+      <c r="C43" s="89"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="41"/>
+    </row>
+    <row r="45" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="41"/>
+    </row>
+    <row r="46" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="41"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="40"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="40"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="40"/>
+    </row>
+    <row r="51" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="40"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C52" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="41"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="41"/>
+    </row>
+    <row r="54" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="40"/>
+    </row>
+    <row r="55" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="38"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="20"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
+      <c r="C56" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="41"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="40"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="38"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="40"/>
+    </row>
+    <row r="60" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="65"/>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="38"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="38"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="38"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="38"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="40"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="34"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="34"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
+      <c r="A81" s="8"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="23"/>
+      <c r="A82" s="8"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="23"/>
+      <c r="A83" s="8"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="23"/>
+      <c r="A84" s="8"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
+      <c r="A85" s="8"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
+      <c r="A86" s="8"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
+      <c r="A87" s="8"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="23"/>
+      <c r="A88" s="8"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
+      <c r="A89" s="8"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="23"/>
+      <c r="A90" s="8"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
+      <c r="A91" s="8"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="23"/>
+      <c r="A92" s="8"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
+      <c r="A93" s="8"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
+      <c r="A94" s="8"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
+      <c r="A95" s="8"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
+      <c r="A96" s="8"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="23"/>
+      <c r="A97" s="8"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="23"/>
+      <c r="A98" s="8"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="23"/>
+      <c r="A99" s="8"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="23"/>
+      <c r="A100" s="8"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="23"/>
+      <c r="A101" s="8"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="23"/>
+      <c r="A102" s="8"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="23"/>
+      <c r="A103" s="8"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="23"/>
+      <c r="A104" s="8"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="23"/>
+      <c r="A105" s="8"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="23"/>
+      <c r="A106" s="8"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="23"/>
+      <c r="A107" s="8"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="23"/>
+      <c r="A108" s="8"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="23"/>
+      <c r="A109" s="8"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="23"/>
+      <c r="A110" s="8"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
+      <c r="A111" s="8"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="23"/>
+      <c r="A112" s="8"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="23"/>
+      <c r="A113" s="8"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="23"/>
+      <c r="A114" s="8"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="23"/>
+      <c r="A115" s="8"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="23"/>
+      <c r="A116" s="8"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="23"/>
+      <c r="A117" s="8"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="23"/>
+      <c r="A118" s="8"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="23"/>
+      <c r="A119" s="8"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="23"/>
+      <c r="A120" s="8"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="23"/>
+      <c r="A121" s="8"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="23"/>
+      <c r="A122" s="8"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="23"/>
+      <c r="A123" s="8"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="23"/>
+      <c r="A124" s="8"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="23"/>
+      <c r="A125" s="8"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="23"/>
+      <c r="A126" s="8"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="23"/>
+      <c r="A127" s="8"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="23"/>
+      <c r="A128" s="8"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="23"/>
+      <c r="A129" s="8"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="23"/>
+      <c r="A130" s="8"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="23"/>
+      <c r="A131" s="8"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="23"/>
+      <c r="A132" s="8"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="23"/>
+      <c r="A133" s="8"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="23"/>
+      <c r="A134" s="8"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="23"/>
+      <c r="A135" s="8"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="23"/>
+      <c r="A136" s="8"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="23"/>
+      <c r="A137" s="8"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="23"/>
+      <c r="A138" s="8"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="23"/>
+      <c r="A139" s="8"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="23"/>
+      <c r="A140" s="8"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="23"/>
+      <c r="A141" s="8"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="23"/>
+      <c r="A142" s="8"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="23"/>
+      <c r="A143" s="8"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="23"/>
+      <c r="A144" s="8"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="23"/>
+      <c r="A145" s="8"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="23"/>
+      <c r="A146" s="8"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="23"/>
+      <c r="A147" s="8"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="23"/>
+      <c r="A148" s="8"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="23"/>
+      <c r="A149" s="8"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="23"/>
+      <c r="A150" s="8"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="23"/>
+      <c r="A151" s="8"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
     <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F4:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{1F4FA933-C62C-406C-AB36-87A016AAECEF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:C15 D7:D1048576" xr:uid="{1F4FA933-C62C-406C-AB36-87A016AAECEF}">
       <formula1>$D$7:$D$9</formula1>
     </dataValidation>
   </dataValidations>
@@ -1918,8 +3341,30 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{49B37AA4-F362-463F-8D3D-76F9AC1B6192}">
-            <xm:f>NOT(ISERROR(SEARCH($D$7,D1)))</xm:f>
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{1461A99B-A758-4223-9DBF-975B6957C3C0}">
+            <xm:f>NOT(ISERROR(SEARCH($D$9,D7)))</xm:f>
+            <xm:f>$D$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{F0B233DA-31AD-4140-BCAC-713FBD873D9D}">
+            <xm:f>NOT(ISERROR(SEARCH($D$8,D7)))</xm:f>
+            <xm:f>$D$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{49B37AA4-F362-463F-8D3D-76F9AC1B6192}">
+            <xm:f>NOT(ISERROR(SEARCH($D$7,D7)))</xm:f>
             <xm:f>$D$7</xm:f>
             <x14:dxf>
               <font>
@@ -1932,8 +3377,22 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{F0B233DA-31AD-4140-BCAC-713FBD873D9D}">
-            <xm:f>NOT(ISERROR(SEARCH($D$8,D1)))</xm:f>
+          <xm:sqref>D35:D38 D7:D33 D40:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{D07589D1-9E7B-424F-9012-B63D2B79C87E}">
+            <xm:f>NOT(ISERROR(SEARCH($D$9,D34)))</xm:f>
+            <xm:f>$D$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{40414796-5C23-4160-A5E8-F31D18E42F2C}">
+            <xm:f>NOT(ISERROR(SEARCH($D$8,D34)))</xm:f>
             <xm:f>$D$8</xm:f>
             <x14:dxf>
               <fill>
@@ -1943,8 +3402,25 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{1461A99B-A758-4223-9DBF-975B6957C3C0}">
-            <xm:f>NOT(ISERROR(SEARCH($D$9,D1)))</xm:f>
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{B7EF575D-9A2B-4656-AC04-C141814CF6D6}">
+            <xm:f>NOT(ISERROR(SEARCH($D$7,D34)))</xm:f>
+            <xm:f>$D$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{CAA0A506-8DF7-41FE-88F1-FE0B01820AA8}">
+            <xm:f>NOT(ISERROR(SEARCH($D$9,C15)))</xm:f>
             <xm:f>$D$9</xm:f>
             <x14:dxf>
               <fill>
@@ -1954,7 +3430,1315 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{449E2717-B0A7-459D-941F-5CEC1123CA21}">
+            <xm:f>NOT(ISERROR(SEARCH($D$8,C15)))</xm:f>
+            <xm:f>$D$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{4E354FAD-64D1-4647-B81C-596C3DC4257B}">
+            <xm:f>NOT(ISERROR(SEARCH($D$7,C15)))</xm:f>
+            <xm:f>$D$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{F90E284A-D327-4BF3-A76E-8610EC17E1A8}">
+            <xm:f>NOT(ISERROR(SEARCH($D$9,B15)))</xm:f>
+            <xm:f>$D$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{BA35DA79-C6C7-4180-9118-4D2490A3B1C2}">
+            <xm:f>NOT(ISERROR(SEARCH($D$8,B15)))</xm:f>
+            <xm:f>$D$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{56C8D7BC-2C45-44C6-B667-095C5AFA82BA}">
+            <xm:f>NOT(ISERROR(SEARCH($D$7,B15)))</xm:f>
+            <xm:f>$D$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{1E56BA33-9D34-48D5-B32A-5A9577C071A1}">
+            <xm:f>NOT(ISERROR(SEARCH($D$9,A15)))</xm:f>
+            <xm:f>$D$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{EBE50878-B650-4947-A620-C5AC31C121FB}">
+            <xm:f>NOT(ISERROR(SEARCH($D$8,A15)))</xm:f>
+            <xm:f>$D$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{E9E12DC3-B8E3-4576-8C11-A2F8E3FF4F3D}">
+            <xm:f>NOT(ISERROR(SEARCH($D$7,A15)))</xm:f>
+            <xm:f>$D$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{3D608DE8-1E47-4372-8550-DD5C02B8BEFB}">
+            <xm:f>NOT(ISERROR(SEARCH($D$9,D39)))</xm:f>
+            <xm:f>$D$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{10A68455-310D-49C2-A4EF-39625842BD75}">
+            <xm:f>NOT(ISERROR(SEARCH($D$8,D39)))</xm:f>
+            <xm:f>$D$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{6A10E9D0-BD3F-4018-9E78-AAF1E0A8D374}">
+            <xm:f>NOT(ISERROR(SEARCH($D$7,D39)))</xm:f>
+            <xm:f>$D$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D39</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC3BD83-D3A7-4297-A3F3-99118A8C56E5}">
+  <dimension ref="A1:M74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
+    </row>
+    <row r="3" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="E3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="86"/>
+    </row>
+    <row r="4" spans="1:13" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="86"/>
+    </row>
+    <row r="5" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="77"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="92"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="77"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+    </row>
+    <row r="12" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="54"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="88"/>
+      <c r="C44" s="89"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="19"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="19"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="19"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="19"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="19"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="19"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="19"/>
+    </row>
+    <row r="71" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A44:C44"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D74" xr:uid="{7F5301DD-CF4F-4AC9-B498-2E187F4B1014}">
+      <formula1>$D$7:$D$9</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{109283D5-3B75-4223-B144-C3C43D8FEF62}">
+            <xm:f>NOT(ISERROR(SEARCH($D$9,D7)))</xm:f>
+            <xm:f>$D$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{E73AE627-22FF-488B-8BC5-4C0BA21751F3}">
+            <xm:f>NOT(ISERROR(SEARCH($D$8,D7)))</xm:f>
+            <xm:f>$D$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{44264083-44E5-4FE2-ADC7-F9178D203C2C}">
+            <xm:f>NOT(ISERROR(SEARCH($D$7,D7)))</xm:f>
+            <xm:f>$D$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D7:D34 D36:D74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{354E6CB0-2820-430A-8AED-FF763B4420AE}">
+            <xm:f>NOT(ISERROR(SEARCH($D$9,D35)))</xm:f>
+            <xm:f>$D$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{868FB8D9-D427-4672-8326-DBECEBF94E00}">
+            <xm:f>NOT(ISERROR(SEARCH($D$8,D35)))</xm:f>
+            <xm:f>$D$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{FC602714-D7AD-4704-9B3B-2BDDA6EA4638}">
+            <xm:f>NOT(ISERROR(SEARCH($D$7,D35)))</xm:f>
+            <xm:f>$D$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/TestDocs/E2e_tests_R4D.xlsx
+++ b/TestDocs/E2e_tests_R4D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EnyFood\Random4Dinner\TestDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A82A71-86D4-45BF-BD00-7352FFDD7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B7CF54-4A70-4893-A5B1-9BC486EB9215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44100" yWindow="795" windowWidth="31650" windowHeight="12330" activeTab="1" xr2:uid="{45BE1B39-84B1-47C3-9973-4B355870E5A1}"/>
+    <workbookView xWindow="-44100" yWindow="795" windowWidth="36525" windowHeight="18945" activeTab="1" xr2:uid="{45BE1B39-84B1-47C3-9973-4B355870E5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="E2E" sheetId="1" r:id="rId1"/>
@@ -598,9 +598,6 @@
     <t>The method of measuring the quantity of the Ingredient is selected</t>
   </si>
   <si>
-    <t>Additional panel isn't useful</t>
-  </si>
-  <si>
     <t>Tap the proportions stepper to decrease the amount (-1)</t>
   </si>
   <si>
@@ -641,6 +638,9 @@
   </si>
   <si>
     <t>The counting logic isn't clear</t>
+  </si>
+  <si>
+    <t>Additional panel isn't useful for the User</t>
   </si>
 </sst>
 </file>
@@ -1691,6 +1691,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1721,65 +1763,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2311,17 +2311,17 @@
       <c r="B1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="80"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -2333,16 +2333,16 @@
       <c r="E2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
@@ -2352,16 +2352,16 @@
       <c r="E3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="86"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
@@ -2373,16 +2373,16 @@
       <c r="E4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
@@ -2395,39 +2395,39 @@
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="86" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="91" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="97"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="98"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
@@ -2436,11 +2436,11 @@
       <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -2485,11 +2485,11 @@
       <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2547,11 +2547,11 @@
       <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2692,11 +2692,11 @@
       <c r="C34" s="54"/>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="89"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
     </row>
     <row r="36" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
@@ -2776,11 +2776,11 @@
       <c r="C42" s="66"/>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="89"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="79"/>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
@@ -3315,6 +3315,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F4:M4"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A7:A9"/>
@@ -3323,11 +3328,6 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="F4:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -3585,7 +3585,7 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3603,17 +3603,17 @@
       <c r="B1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="80"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -3625,16 +3625,16 @@
       <c r="E2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
@@ -3644,16 +3644,16 @@
       <c r="E3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="86"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:13" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
@@ -3665,16 +3665,16 @@
       <c r="E4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
@@ -3687,39 +3687,39 @@
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="103" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="91" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="105"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="106"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
@@ -3727,11 +3727,11 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
     </row>
     <row r="12" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -3788,11 +3788,11 @@
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="30"/>
       <c r="E16" s="19"/>
     </row>
@@ -3865,11 +3865,11 @@
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="106"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4063,11 +4063,11 @@
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="89"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="79"/>
       <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4138,7 +4138,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>84</v>
@@ -4169,11 +4169,11 @@
       <c r="E43" s="19"/>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="88"/>
-      <c r="C44" s="89"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="79"/>
       <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4184,7 +4184,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>169</v>
@@ -4319,7 +4319,7 @@
         <v>120</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D54" s="41" t="s">
         <v>83</v>
@@ -4552,12 +4552,12 @@
         <v>83</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B70" s="76" t="s">
         <v>185</v>
@@ -4572,36 +4572,36 @@
     </row>
     <row r="71" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B71" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="74" t="s">
         <v>189</v>
-      </c>
-      <c r="C71" s="74" t="s">
-        <v>190</v>
       </c>
       <c r="D71" s="40" t="s">
         <v>83</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C72" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D72" s="40" t="s">
         <v>83</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4612,13 +4612,13 @@
         <v>153</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4629,7 +4629,7 @@
         <v>154</v>
       </c>
       <c r="C74" s="49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>83</v>
@@ -4638,6 +4638,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="F3:M3"/>
@@ -4646,11 +4651,6 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">

--- a/TestDocs/E2e_tests_R4D.xlsx
+++ b/TestDocs/E2e_tests_R4D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EnyFood\Random4Dinner\TestDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B7CF54-4A70-4893-A5B1-9BC486EB9215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583263E8-E5AC-4B61-8080-957B9AA96317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44100" yWindow="795" windowWidth="36525" windowHeight="18945" activeTab="1" xr2:uid="{45BE1B39-84B1-47C3-9973-4B355870E5A1}"/>
+    <workbookView xWindow="-20430" yWindow="4125" windowWidth="15900" windowHeight="16545" activeTab="1" xr2:uid="{45BE1B39-84B1-47C3-9973-4B355870E5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="E2E" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -641,6 +641,30 @@
   </si>
   <si>
     <t>Additional panel isn't useful for the User</t>
+  </si>
+  <si>
+    <t>Test Result comment / BR No.</t>
+  </si>
+  <si>
+    <t>Tap an item of the Segmented control</t>
+  </si>
+  <si>
+    <t>Tap the Back button on the "Новое блюдо" screen</t>
+  </si>
+  <si>
+    <t>Tap the Back button on the "Edit {Name} dish" screen</t>
+  </si>
+  <si>
+    <t>Tap the Add button on the group</t>
+  </si>
+  <si>
+    <t>Tap the Back button</t>
+  </si>
+  <si>
+    <t>Tap the Add button</t>
+  </si>
+  <si>
+    <t>Select the Category Picker</t>
   </si>
 </sst>
 </file>
@@ -1691,6 +1715,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1733,35 +1787,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1777,9 +1804,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2311,17 +2335,17 @@
       <c r="B1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -2333,16 +2357,16 @@
       <c r="E2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
@@ -2352,16 +2376,16 @@
       <c r="E3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
@@ -2373,16 +2397,16 @@
       <c r="E4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
@@ -2395,39 +2419,39 @@
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="96" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="77" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="87"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="91"/>
+      <c r="E8" s="77"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="82"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="88"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="91"/>
+      <c r="E9" s="77"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
@@ -2436,11 +2460,11 @@
       <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -2485,11 +2509,11 @@
       <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2547,11 +2571,11 @@
       <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2692,11 +2716,11 @@
       <c r="C34" s="54"/>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="79"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="89"/>
     </row>
     <row r="36" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
@@ -2776,11 +2800,11 @@
       <c r="C42" s="66"/>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="79"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="89"/>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
@@ -3315,11 +3339,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="F4:M4"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A7:A9"/>
@@ -3328,6 +3347,11 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F4:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -3584,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC3BD83-D3A7-4297-A3F3-99118A8C56E5}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3603,17 +3627,17 @@
       <c r="B1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -3625,16 +3649,16 @@
       <c r="E2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
@@ -3644,16 +3668,16 @@
       <c r="E3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
@@ -3665,16 +3689,16 @@
       <c r="E4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
@@ -3687,39 +3711,39 @@
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="104" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="91" t="s">
-        <v>141</v>
+      <c r="E7" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="91"/>
+      <c r="E8" s="77"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="82"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="105"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="91"/>
+      <c r="E9" s="77"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
@@ -3727,11 +3751,11 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
     </row>
     <row r="12" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -3788,11 +3812,11 @@
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="30"/>
       <c r="E16" s="19"/>
     </row>
@@ -3865,11 +3889,11 @@
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="106"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4029,7 +4053,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>109</v>
@@ -4063,11 +4087,11 @@
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="79"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
       <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4090,7 +4114,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>34</v>
@@ -4147,12 +4171,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>117</v>
@@ -4169,11 +4193,11 @@
       <c r="E43" s="19"/>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="79"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="89"/>
       <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4226,7 +4250,7 @@
         <v>68</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>102</v>
@@ -4408,7 +4432,7 @@
         <v>130</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="C60" s="46" t="s">
         <v>136</v>
@@ -4423,7 +4447,7 @@
         <v>138</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="C61" s="48" t="s">
         <v>137</v>
@@ -4453,7 +4477,7 @@
         <v>140</v>
       </c>
       <c r="B63" s="61" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="C63" s="60" t="s">
         <v>145</v>
@@ -4638,11 +4662,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A44:C44"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="F3:M3"/>
@@ -4651,6 +4670,11 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
